--- a/MAJ_annexe_nomenclature_CNSA/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/MAJ_annexe_nomenclature_CNSA/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T16:20:08+00:00</t>
+    <t>2024-12-16T16:25:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MAJ_annexe_nomenclature_CNSA/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/MAJ_annexe_nomenclature_CNSA/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T16:25:01+00:00</t>
+    <t>2024-12-17T10:51:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MAJ_annexe_nomenclature_CNSA/ig/StructureDefinition-sdo-document-reference.xlsx
+++ b/MAJ_annexe_nomenclature_CNSA/ig/StructureDefinition-sdo-document-reference.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T10:51:37+00:00</t>
+    <t>2024-12-17T14:57:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
